--- a/Reports/testSample.xlsx
+++ b/Reports/testSample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -90,8 +90,7 @@
     <t>sampleUnitTest</t>
   </si>
   <si>
-    <t>Run Automation
-Run Manual</t>
+    <t>Run Automation</t>
   </si>
   <si>
     <t>vonhatquang&lt;nhatquang0982@gmail.com&gt;</t>
@@ -103,13 +102,16 @@
     <t>03/03/22 09:14:27</t>
   </si>
   <si>
-    <t>d03d7f87b1f7ccea62aea1b492a0bcdb17c0923b</t>
+    <t>03/03/22 09:33:10</t>
+  </si>
+  <si>
+    <t>06c1de1c0b977c25658fbda696b1c9aa4f476bf9</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Create testSample.MD</t>
+    <t>Update testSample.MD</t>
   </si>
   <si>
     <t>Pass</t>
@@ -637,13 +639,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +653,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,19 +729,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
